--- a/po_analysis_by_asin/B0CV3B64K2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV3B64K2_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>10</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>12</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>

--- a/po_analysis_by_asin/B0CV3B64K2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV3B64K2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -605,7 +606,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -663,6 +664,383 @@
       </c>
       <c r="B8" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2694875298912611</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.562509485642984</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.172702610333869</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.574884948193354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1645390559312308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.716446041579286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.38886146198068</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.71060761360079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4895285253757932</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.761034819544324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4136874077571332</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.636279921486546</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1158866493743832</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.518297605951786</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3133322065165772</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.837923231456047</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3727395695877033</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.710113326182914</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1328794448939764</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.742927235209355</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4364889734049733</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.697223472554938</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2093725055266555</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.740329141289823</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2783334395222958</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.563223768283376</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2082365715622867</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.608512892404942</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.281153398961461</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.54677762619685</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5436025362293007</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.684070877943914</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2289732462401197</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.804838491676238</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3158940551873764</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.802681459224644</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.511437387783285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.627238316411318</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4758554760535734</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.88874157761177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3002359049040087</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.776942773405858</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5471116525303314</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.891853751857901</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3203319661845824</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.711481125951017</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3633552452880243</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.607250513117183</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CV3B64K2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV3B64K2_po_data.xlsx
@@ -677,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,16 +696,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -714,12 +704,6 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.2694875298912611</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.562509485642984</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -728,12 +712,6 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.172702610333869</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.574884948193354</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -742,12 +720,6 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1645390559312308</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.716446041579286</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -756,12 +728,6 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.38886146198068</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.71060761360079</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -770,12 +736,6 @@
       <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.4895285253757932</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.761034819544324</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -784,12 +744,6 @@
       <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.4136874077571332</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.636279921486546</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -798,12 +752,6 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1158866493743832</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.518297605951786</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -812,12 +760,6 @@
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.3133322065165772</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.837923231456047</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -826,12 +768,6 @@
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.3727395695877033</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.710113326182914</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -840,12 +776,6 @@
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1328794448939764</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.742927235209355</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -854,12 +784,6 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.4364889734049733</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.697223472554938</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -868,12 +792,6 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.2093725055266555</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.740329141289823</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -882,12 +800,6 @@
       <c r="B14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.2783334395222958</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.563223768283376</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -896,12 +808,6 @@
       <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.2082365715622867</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.608512892404942</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -910,12 +816,6 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.281153398961461</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.54677762619685</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -924,12 +824,6 @@
       <c r="B17" t="n">
         <v>3</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.5436025362293007</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.684070877943914</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -938,12 +832,6 @@
       <c r="B18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.2289732462401197</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5.804838491676238</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -952,12 +840,6 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.3158940551873764</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.802681459224644</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -966,12 +848,6 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.511437387783285</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5.627238316411318</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -980,12 +856,6 @@
       <c r="B21" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.4758554760535734</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.88874157761177</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -994,12 +864,6 @@
       <c r="B22" t="n">
         <v>3</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.3002359049040087</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.776942773405858</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1008,12 +872,6 @@
       <c r="B23" t="n">
         <v>3</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.5471116525303314</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5.891853751857901</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1022,12 +880,6 @@
       <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.3203319661845824</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.711481125951017</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1035,12 +887,6 @@
       </c>
       <c r="B25" t="n">
         <v>3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.3633552452880243</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.607250513117183</v>
       </c>
     </row>
   </sheetData>
